--- a/docs/DAX_Measures_Financials.xlsx
+++ b/docs/DAX_Measures_Financials.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ksoszka-my.sharepoint.com/personal/kamil_soszka_ksoszka_onmicrosoft_com/Documents/Kamil Soszka Business Intelligence/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F0B8ABA00B168920CF7692D89EEDB2CB07F8B53A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A626BCB-5BAF-4ADA-B0D3-B138EDBA7E94}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F0B8ABA00B168920CF7692D89EEBCA8A2D2EB53A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249E0190-2B21-4BB6-B00E-57ED5CAFC088}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DAX_Measures_Financials" sheetId="1" r:id="rId1"/>
+    <sheet name="Query1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAX_Measures_Financials!$A$1:$U$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Query1!$A$1:$U$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -88,7 +88,7 @@
     <t>DEFAULT_FORMAT_STRING</t>
   </si>
   <si>
-    <t>fdec258b-7a7d-40b9-8190-97b05eaacf3d</t>
+    <t>2b6a011c-6e08-479a-9a81-cffbb2ed3c6c</t>
   </si>
   <si>
     <t>Model</t>
@@ -2658,34 +2658,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.21875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="34.44140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="32.77734375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="70.77734375" customWidth="1"/>
+    <col min="15" max="15" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
